--- a/Input_data/IST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
@@ -3043,7 +3043,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3105,7 +3105,11 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G83" t="inlineStr">
         <is>
           <t>0.4%</t>
@@ -3367,7 +3371,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>54.5</t>
+          <t>54.4</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3701,7 +3705,11 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="G101" t="inlineStr">
         <is>
           <t>1.7%</t>
@@ -3733,7 +3741,11 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G102" t="inlineStr">
         <is>
           <t>0.3%</t>
@@ -6404,15 +6416,11 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentDEC/28</t>
+          <t>Foreign Bond InvestmentJAN/04</t>
         </is>
       </c>
       <c r="D191" t="inlineStr"/>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>¥-919.2B</t>
-        </is>
-      </c>
+      <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="n">
@@ -6432,11 +6440,15 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/04</t>
+          <t>Foreign Bond InvestmentDEC/28</t>
         </is>
       </c>
       <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr"/>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>¥-919.2B</t>
+        </is>
+      </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="n">
@@ -6456,11 +6468,15 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/04</t>
+          <t>Stock Investment by ForeignersDEC/28</t>
         </is>
       </c>
       <c r="D193" t="inlineStr"/>
-      <c r="E193" t="inlineStr"/>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>¥-1022.6B</t>
+        </is>
+      </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="n">
@@ -6480,15 +6496,11 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersDEC/28</t>
+          <t>Stock Investment by ForeignersJAN/04</t>
         </is>
       </c>
       <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>¥-1022.6B</t>
-        </is>
-      </c>
+      <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="n">

--- a/Input_data/IST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
@@ -1129,7 +1129,11 @@
           <t>HCOB Composite PMIDEC</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>49.7</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>47.7</t>
@@ -1161,7 +1165,11 @@
           <t>HCOB Services PMIDEC</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>50.7</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>49.2</t>
@@ -1197,7 +1205,11 @@
           <t>HCOB Services PMI FinalDEC</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>49.3</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>46.9</t>
@@ -1233,7 +1245,11 @@
           <t>HCOB Composite PMI FinalDEC</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>47.5</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>45.9</t>
@@ -1269,7 +1285,11 @@
           <t>HCOB Composite PMI FinalDEC</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>47.2</t>
@@ -1305,7 +1325,11 @@
           <t>HCOB Services PMI FinalDEC</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>49.3</t>
@@ -3955,7 +3979,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>C$0.8B</t>
+          <t>C$-1B</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4055,7 +4079,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>$-77.5B</t>
+          <t>$-78B</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -4219,7 +4243,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>53.5</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -4255,7 +4279,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>7.65M</t>
+          <t>7.70M</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -4685,7 +4709,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -4821,12 +4845,12 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H137" t="n">
@@ -4857,7 +4881,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -4891,7 +4915,11 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="G139" t="inlineStr">
         <is>
           <t>1.7%</t>
@@ -5189,7 +5217,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>-11.4</t>
+          <t>-11.7</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -5225,7 +5253,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -5261,7 +5289,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>-1.4%</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -5327,7 +5355,11 @@
           <t>5.3</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr"/>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>5.9</t>
+        </is>
+      </c>
       <c r="G152" t="inlineStr">
         <is>
           <t>7.5</t>
@@ -5505,7 +5537,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -5541,7 +5573,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -5598,7 +5630,11 @@
         </is>
       </c>
       <c r="D161" t="inlineStr"/>
-      <c r="E161" t="inlineStr"/>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>-12.6%</t>
+        </is>
+      </c>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="n">
@@ -5622,7 +5658,11 @@
         </is>
       </c>
       <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr"/>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>174.9</t>
+        </is>
+      </c>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="n">
@@ -5646,7 +5686,11 @@
         </is>
       </c>
       <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr"/>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>395.1</t>
+        </is>
+      </c>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="n">
@@ -5670,7 +5714,11 @@
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>136.7</t>
+        </is>
+      </c>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="n">
@@ -5701,7 +5749,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>143K</t>
+          <t>139K</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -6323,7 +6371,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>$12.5B</t>
+          <t>$12B</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -6416,11 +6464,15 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/04</t>
+          <t>Foreign Bond InvestmentDEC/28</t>
         </is>
       </c>
       <c r="D191" t="inlineStr"/>
-      <c r="E191" t="inlineStr"/>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>¥-919.2B</t>
+        </is>
+      </c>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="n">
@@ -6440,15 +6492,11 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentDEC/28</t>
+          <t>Foreign Bond InvestmentJAN/04</t>
         </is>
       </c>
       <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>¥-919.2B</t>
-        </is>
-      </c>
+      <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="n">
@@ -6468,15 +6516,11 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersDEC/28</t>
+          <t>Stock Investment by ForeignersJAN/04</t>
         </is>
       </c>
       <c r="D193" t="inlineStr"/>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>¥-1022.6B</t>
-        </is>
-      </c>
+      <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="n">
@@ -6496,11 +6540,15 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/04</t>
+          <t>Stock Investment by ForeignersDEC/28</t>
         </is>
       </c>
       <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr"/>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>¥-1022.6B</t>
+        </is>
+      </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="n">
@@ -6531,7 +6579,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>A$6.100B</t>
+          <t>A$5.900B</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -6567,7 +6615,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -6747,7 +6795,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>€14.4B</t>
+          <t>€14.8B</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -6781,7 +6829,11 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr"/>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="G203" t="inlineStr"/>
       <c r="H203" t="n">
         <v>2</v>
@@ -6845,7 +6897,11 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr"/>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="G205" t="inlineStr"/>
       <c r="H205" t="n">
         <v>3</v>
@@ -6987,7 +7043,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -7285,7 +7341,11 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr"/>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G220" t="inlineStr">
         <is>
           <t>0.5%</t>
@@ -7317,7 +7377,11 @@
           <t>6.5%</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr"/>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="G221" t="inlineStr">
         <is>
           <t>5%</t>
@@ -7527,10 +7591,14 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>210K</t>
-        </is>
-      </c>
-      <c r="G227" t="inlineStr"/>
+          <t>217K</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>213K</t>
+        </is>
+      </c>
       <c r="H227" t="n">
         <v>2</v>
       </c>
@@ -7558,7 +7626,11 @@
         </is>
       </c>
       <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>1848K</t>
+        </is>
+      </c>
       <c r="H228" t="n">
         <v>3</v>
       </c>
@@ -7586,7 +7658,11 @@
         </is>
       </c>
       <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>224K</t>
+        </is>
+      </c>
       <c r="H229" t="n">
         <v>3</v>
       </c>
@@ -7784,7 +7860,11 @@
         </is>
       </c>
       <c r="D236" t="inlineStr"/>
-      <c r="E236" t="inlineStr"/>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>4.265%</t>
+        </is>
+      </c>
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="inlineStr"/>
       <c r="H236" t="n">
@@ -7808,7 +7888,11 @@
         </is>
       </c>
       <c r="D237" t="inlineStr"/>
-      <c r="E237" t="inlineStr"/>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>4.240%</t>
+        </is>
+      </c>
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="n">
@@ -9295,7 +9379,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -9331,7 +9415,11 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="F284" t="inlineStr"/>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G284" t="inlineStr">
         <is>
           <t>0.2%</t>
@@ -9367,7 +9455,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>-2.4%</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">

--- a/Input_data/IST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H460"/>
+  <dimension ref="A1:H464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1513,7 +1513,11 @@
           <t>S&amp;P Global Services PMI FinalDEC</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>50.8</t>
@@ -1549,7 +1553,11 @@
           <t>S&amp;P Global Composite PMI FinalDEC</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>50.4</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>50.5</t>
@@ -2310,13 +2318,13 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMDEC</t>
+          <t>Brandenburg CPI MoMDEC</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -2334,13 +2342,13 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYDEC</t>
+          <t>Brandenburg CPI YoYDEC</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -2358,13 +2366,13 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMDEC</t>
+          <t>North Rhine Westphalia CPI MoMDEC</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -2382,13 +2390,13 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Bavaria CPI YoYDEC</t>
+          <t>North Rhine Westphalia CPI YoYDEC</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -2406,7 +2414,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMDEC</t>
+          <t>Saxony CPI MoMDEC</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -2430,13 +2438,13 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYDEC</t>
+          <t>Saxony CPI YoYDEC</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -2454,17 +2462,21 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMDEC</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>-1.0%</t>
+        </is>
+      </c>
       <c r="H61" t="n">
         <v>3</v>
       </c>
@@ -2473,20 +2485,16 @@
       <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYDEC</t>
+          <t>BCB Focus Market Readout</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
@@ -2497,124 +2505,146 @@
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMDEC</t>
+          <t>Total Vehicle SalesDEC</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>16.3M</t>
+        </is>
+      </c>
       <c r="H63" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr"/>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Saxony CPI YoYDEC</t>
-        </is>
-      </c>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Tuesday January 07 2025</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+      <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
-      <c r="H64" t="n">
-        <v>3</v>
-      </c>
+      <c r="H64" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr"/>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>05:31 AM</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>BRC Retail Sales Monitor YoYDEC</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr"/>
+          <t>-3.4%</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>-1.0%</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr"/>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>BCB Focus Market Readout</t>
+          <t>Building Permits MoM PrelNOV</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr"/>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Total Vehicle SalesDEC</t>
+          <t>Private House Approvals MoM PrelNOV</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>16.5M</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>16.5M</t>
-        </is>
-      </c>
+          <t>-5.2%</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>16.3M</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -2624,117 +2654,111 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Tuesday January 07 2025</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
+          <t>09:05 AM</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>10-Year JGB Auction</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1.084%</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>BRC Retail Sales Monitor YoYDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>-3.4%</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+          <t>0.1255%</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+          <t>3.19%</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelNOV</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>3.31%</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
         <v>3</v>
       </c>
@@ -2742,181 +2766,205 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>Halifax House Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.084%</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Halifax House Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.1255%</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>4.6%</t>
+        </is>
+      </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Inflation Rate YoY PrelDEC</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3.19%</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Inflation Rate MoM PrelDEC</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3.31%</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMDEC</t>
+          <t>Harmonised Inflation Rate YoY PrelDEC</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYDEC</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>€275.572B</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>4.6%</t>
-        </is>
-      </c>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
@@ -2932,95 +2980,87 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelDEC</t>
+          <t>Harmonised Inflation Rate MoM PrelDEC</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelDEC</t>
+          <t>IPC-Fipe Inflation MoMDEC</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>1.17%</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelDEC</t>
+          <t>HCOB Construction PMIDEC</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+          <t>42.7</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -3030,7 +3070,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3040,17 +3080,21 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>HCOB Construction PMIDEC</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>€275.572B</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
       <c r="H81" t="n">
         <v>3</v>
       </c>
@@ -3058,65 +3102,61 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelDEC</t>
+          <t>HCOB Construction PMIDEC</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>37.8</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMDEC</t>
+          <t>HCOB Construction PMIDEC</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1.17%</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>49</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -3126,61 +3166,65 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>HCOB Construction PMIDEC</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>42.7</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr"/>
+          <t>5.8%</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6%</t>
+        </is>
+      </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>5.8%</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HCOB Construction PMIDEC</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>S$505.7B</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>S$502.0B</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -3190,29 +3234,33 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>HCOB Construction PMIDEC</t>
+          <t>S&amp;P Global Construction PMIDEC</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr"/>
+          <t>55.2</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>54.4</t>
+        </is>
+      </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>37.8</t>
+          <t>54.8</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -3222,31 +3270,27 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HCOB Construction PMIDEC</t>
+          <t>12-Month Letras Auction</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>48.5</t>
+          <t>2.207%</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
         <v>3</v>
       </c>
@@ -3254,161 +3298,169 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>6-Month Letras Auction</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>5.8%</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>6%</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>5.8%</t>
-        </is>
-      </c>
+          <t>2.552%</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Inflation Rate YoY FlashDEC</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>S$505.7B</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>S$502.0B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>S&amp;P Global Construction PMIDEC</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>55.2</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>54.4</t>
+          <t>6.4%</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>54.8</t>
+          <t>6.4%</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>12-Month Letras Auction</t>
+          <t>Core Inflation Rate YoY FlashDEC</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2.207%</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>6-Month Letras Auction</t>
+          <t>Inflation Rate MoM FlashDEC</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2.552%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -3424,27 +3476,23 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashDEC</t>
+          <t>CPI FlashDEC</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>126.62</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
@@ -3455,28 +3503,28 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>Inflation Rate YoY PrelDEC</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>6.4%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>6.4%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -3491,28 +3539,28 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashDEC</t>
+          <t>Inflation Rate MoM PrelDEC</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -3527,28 +3575,32 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashDEC</t>
+          <t>Harmonised Inflation Rate YoY PrelDEC</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr"/>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97">
@@ -3559,24 +3611,28 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>CPI FlashDEC</t>
+          <t>Harmonised Inflation Rate MoM PrelDEC</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H97" t="n">
@@ -3591,100 +3647,80 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelDEC</t>
+          <t>30-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+          <t>4.747%</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>1.94%</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelDEC</t>
+          <t>PPI MoMNOV</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+          <t>0.94%</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H100" t="n">
@@ -3694,33 +3730,29 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelDEC</t>
+          <t>PPI YoYNOV</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>5.89%</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>5.5%</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -3730,117 +3762,121 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>30-Year Treasury Gilt Auction</t>
+          <t>Fiscal Year GDP Growth Prel2025-24</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>4.747%</t>
+          <t>8.2%</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Fed Barkin Speech</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>1.94%</t>
-        </is>
-      </c>
+      <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>PPI MoMNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>0.94%</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr"/>
+          <t>C$-0.92B</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>C$-1B</t>
+        </is>
+      </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>C$-1.5B</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>PPI YoYNOV</t>
+          <t>ExportsNOV</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>5.89%</t>
+          <t>C$64.22B</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>C$64.0B</t>
         </is>
       </c>
       <c r="H105" t="n">
@@ -3850,39 +3886,39 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Fiscal Year GDP Growth Prel2025-24</t>
+          <t>ImportsNOV</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>8.2%</t>
+          <t>C$65.14B</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>C$65.5B</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3892,13 +3928,25 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Fed Barkin Speech</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>$-73.8B</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>$-78B</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>$-70B</t>
+        </is>
+      </c>
       <c r="H107" t="n">
         <v>2</v>
       </c>
@@ -3911,32 +3959,28 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>ExportsNOV</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>C$-0.92B</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>C$-1B</t>
-        </is>
-      </c>
+          <t>$265.7B</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t>C$-1.5B</t>
+          <t>$264B</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -3947,58 +3991,54 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>ImportsNOV</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>C$64.22B</t>
+          <t>$339.6B</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t>C$64.0B</t>
+          <t>$334B</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>Redbook YoYJAN/04</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>C$65.14B</t>
+          <t>7.1%</t>
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>C$65.5B</t>
-        </is>
-      </c>
+      <c r="G110" t="inlineStr"/>
       <c r="H110" t="n">
         <v>3</v>
       </c>
@@ -4006,43 +4046,43 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Ivey PMI s.aDEC</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>$-73.8B</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>$-78B</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>$-70B</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4052,29 +4092,33 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>ISM Services PMIDEC</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>$265.7B</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr"/>
+          <t>52.1</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>$264B</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4084,29 +4128,33 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>JOLTs Job OpeningsNOV</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>$339.6B</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr"/>
+          <t>7.744M</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>7.70M</t>
+        </is>
+      </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>$334B</t>
+          <t>7.69M</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4116,17 +4164,21 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/04</t>
+          <t>ISM Services Business ActivityDEC</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>7.1%</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>54.1</t>
+        </is>
+      </c>
       <c r="H114" t="n">
         <v>3</v>
       </c>
@@ -4139,32 +4191,28 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Ivey PMI s.aDEC</t>
+          <t>ISM Services EmploymentDEC</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>52.3</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
@@ -4180,27 +4228,23 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>ISM Services PMIDEC</t>
+          <t>ISM Services New OrdersDEC</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>52.1</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
@@ -4216,27 +4260,23 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsNOV</t>
+          <t>ISM Services PricesDEC</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>7.744M</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>7.70M</t>
-        </is>
-      </c>
+          <t>58.2</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
-          <t>7.69M</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118">
@@ -4252,19 +4292,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityDEC</t>
+          <t>JOLTs Job QuitsNOV</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>3.326M</t>
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>3.31M</t>
         </is>
       </c>
       <c r="H118" t="n">
@@ -4274,7 +4314,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4284,21 +4324,17 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>ISM Services EmploymentDEC</t>
+          <t>42-Day Bill Auction</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>4.280%</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
+      <c r="G119" t="inlineStr"/>
       <c r="H119" t="n">
         <v>3</v>
       </c>
@@ -4306,7 +4342,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4316,83 +4352,71 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersDEC</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>54.1</t>
-        </is>
-      </c>
+      <c r="G120" t="inlineStr"/>
       <c r="H120" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
+      <c r="A121" t="inlineStr"/>
       <c r="B121" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>ISM Services PricesDEC</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>2.545%</t>
         </is>
       </c>
       <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
+      <c r="A122" t="inlineStr"/>
       <c r="B122" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsNOV</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>3.326M</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr"/>
+          <t>$3.266T</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>$3.25T</t>
+        </is>
+      </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>3.31M</t>
+          <t>$3.25T</t>
         </is>
       </c>
       <c r="H122" t="n">
@@ -4400,25 +4424,21 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
+      <c r="A123" t="inlineStr"/>
       <c r="B123" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>42-Day Bill Auction</t>
+          <t>Baden Wuerttemberg CPI MoMDEC</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>4.280%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F123" t="inlineStr"/>
@@ -4428,25 +4448,21 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A124" t="inlineStr"/>
       <c r="B124" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>Baden Wuerttemberg CPI YoYDEC</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="F124" t="inlineStr"/>
@@ -4459,18 +4475,18 @@
       <c r="A125" t="inlineStr"/>
       <c r="B125" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>Bavaria CPI MoMDEC</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2.545%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F125" t="inlineStr"/>
@@ -4483,30 +4499,22 @@
       <c r="A126" t="inlineStr"/>
       <c r="B126" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Bavaria CPI YoYDEC</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>$3.266T</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>$3.25T</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>$3.25T</t>
-        </is>
-      </c>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
       <c r="H126" t="n">
         <v>3</v>
       </c>
@@ -5736,35 +5744,43 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Treasury Cash BalanceDEC</t>
+          <t>Initial Jobless ClaimsJAN/04</t>
         </is>
       </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr">
         <is>
-          <t>TRY-62.220B</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
+          <t>211K</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>217K</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>213K</t>
+        </is>
+      </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5774,25 +5790,29 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
+          <t>Continuing Jobless ClaimsDEC/28</t>
         </is>
       </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr">
         <is>
-          <t>-1.178M</t>
+          <t>1844K</t>
         </is>
       </c>
       <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>1848K</t>
+        </is>
+      </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5802,41 +5822,45 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/03</t>
+          <t>Jobless Claims 4-week AverageJAN/04</t>
         </is>
       </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr">
         <is>
-          <t>7.717M</t>
+          <t>223.25K</t>
         </is>
       </c>
       <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>224K</t>
+        </is>
+      </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/03</t>
+          <t>Treasury Cash BalanceDEC</t>
         </is>
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
-          <t>0.323M</t>
+          <t>TRY-62.220B</t>
         </is>
       </c>
       <c r="F169" t="inlineStr"/>
@@ -5858,19 +5882,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr">
         <is>
-          <t>-0.142M</t>
+          <t>-1.178M</t>
         </is>
       </c>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -5886,19 +5910,19 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
+          <t>EIA Gasoline Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
         <is>
-          <t>0.099M</t>
+          <t>7.717M</t>
         </is>
       </c>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -5914,13 +5938,13 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/03</t>
+          <t>EIA Crude Oil Imports ChangeJAN/03</t>
         </is>
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr">
         <is>
-          <t>6.406M</t>
+          <t>0.323M</t>
         </is>
       </c>
       <c r="F172" t="inlineStr"/>
@@ -5942,13 +5966,13 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/03</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
-          <t>-0.959M</t>
+          <t>-0.142M</t>
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
@@ -5970,13 +5994,13 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
         </is>
       </c>
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr">
         <is>
-          <t>-0.416M</t>
+          <t>0.099M</t>
         </is>
       </c>
       <c r="F174" t="inlineStr"/>
@@ -5998,13 +6022,13 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
+          <t>EIA Distillate Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr">
         <is>
-          <t>0.041M</t>
+          <t>6.406M</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
@@ -6016,7 +6040,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -6026,13 +6050,13 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>EIA Gasoline Production ChangeJAN/03</t>
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
         <is>
-          <t>4.195%</t>
+          <t>-0.959M</t>
         </is>
       </c>
       <c r="F176" t="inlineStr"/>
@@ -6044,23 +6068,23 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>2-Year Bond Auction</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
         <is>
-          <t>3.029%</t>
+          <t>-0.416M</t>
         </is>
       </c>
       <c r="F177" t="inlineStr"/>
@@ -6072,7 +6096,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -6082,13 +6106,13 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
         </is>
       </c>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr">
         <is>
-          <t>-116Bcf</t>
+          <t>0.041M</t>
         </is>
       </c>
       <c r="F178" t="inlineStr"/>
@@ -6100,7 +6124,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -6110,13 +6134,13 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr">
         <is>
-          <t>4.535%</t>
+          <t>4.195%</t>
         </is>
       </c>
       <c r="F179" t="inlineStr"/>
@@ -6126,21 +6150,25 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr"/>
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Motorbike Sales YoYDEC</t>
+          <t>2-Year Bond Auction</t>
         </is>
       </c>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr">
         <is>
-          <t>-10.3%</t>
+          <t>3.029%</t>
         </is>
       </c>
       <c r="F180" t="inlineStr"/>
@@ -6150,35 +6178,39 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr"/>
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIDEC</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>-116Bcf</t>
         </is>
       </c>
       <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>51.8</t>
-        </is>
-      </c>
+      <c r="G181" t="inlineStr"/>
       <c r="H181" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr"/>
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>US</t>
@@ -6186,13 +6218,13 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMDEC</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>4.535%</t>
         </is>
       </c>
       <c r="F182" t="inlineStr"/>
@@ -6205,18 +6237,18 @@
       <c r="A183" t="inlineStr"/>
       <c r="B183" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYDEC</t>
+          <t>Motorbike Sales YoYDEC</t>
         </is>
       </c>
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-10.3%</t>
         </is>
       </c>
       <c r="F183" t="inlineStr"/>
@@ -6226,141 +6258,121 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>Thursday January 09 2025</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr"/>
-      <c r="C184" t="inlineStr"/>
+      <c r="A184" t="inlineStr"/>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>ABSA Manufacturing PMIDEC</t>
+        </is>
+      </c>
       <c r="D184" t="inlineStr"/>
-      <c r="E184" t="inlineStr"/>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>48.1</t>
+        </is>
+      </c>
       <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr"/>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>51.8</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
+      <c r="A185" t="inlineStr"/>
       <c r="B185" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Used Car Prices MoMDEC</t>
         </is>
       </c>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
-          <t>-2%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr">
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr"/>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Used Car Prices YoYDEC</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr">
         <is>
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H185" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>FOMC Minutes</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr"/>
-      <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeNOV</t>
-        </is>
-      </c>
+          <t>Thursday January 09 2025</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>$19.24B</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>$12B</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>$14.0B</t>
-        </is>
-      </c>
-      <c r="H187" t="n">
-        <v>3</v>
-      </c>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Average Cash Earnings YoYNOV</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+          <t>-2%</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H188" t="n">
@@ -6370,59 +6382,59 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Overtime Pay YoYNOV</t>
+          <t>FOMC Minutes</t>
         </is>
       </c>
       <c r="D189" t="inlineStr"/>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G189" t="inlineStr"/>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentDEC/28</t>
+          <t>Consumer Credit ChangeNOV</t>
         </is>
       </c>
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
         <is>
-          <t>¥-919.2B</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
+          <t>$19.24B</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>$12B</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>$14.0B</t>
+        </is>
+      </c>
       <c r="H190" t="n">
         <v>3</v>
       </c>
@@ -6430,7 +6442,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -6440,13 +6452,25 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/04</t>
+          <t>Average Cash Earnings YoYNOV</t>
         </is>
       </c>
       <c r="D191" t="inlineStr"/>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="H191" t="n">
         <v>3</v>
       </c>
@@ -6454,7 +6478,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -6464,13 +6488,21 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/04</t>
+          <t>Overtime Pay YoYNOV</t>
         </is>
       </c>
       <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr"/>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H192" t="n">
         <v>3</v>
       </c>
@@ -6488,13 +6520,13 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersDEC/28</t>
+          <t>Foreign Bond InvestmentDEC/28</t>
         </is>
       </c>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr">
         <is>
-          <t>¥-1022.6B</t>
+          <t>¥-919.2B</t>
         </is>
       </c>
       <c r="F193" t="inlineStr"/>
@@ -6506,95 +6538,71 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Foreign Bond InvestmentJAN/04</t>
         </is>
       </c>
       <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>A$5.953B</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>A$5.900B</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>A$6B</t>
-        </is>
-      </c>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Stock Investment by ForeignersJAN/04</t>
         </is>
       </c>
       <c r="D195" t="inlineStr"/>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Exports MoMNOV</t>
+          <t>Stock Investment by ForeignersDEC/28</t>
         </is>
       </c>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>¥-1022.6B</t>
         </is>
       </c>
       <c r="F196" t="inlineStr"/>
@@ -6616,73 +6624,85 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Imports MoMNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
+          <t>A$5.953B</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>A$5.900B</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>A$6B</t>
+        </is>
+      </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr">
         <is>
-          <t>125.9</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr"/>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>30-Year JGB Auction</t>
+          <t>Exports MoMNOV</t>
         </is>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr">
         <is>
-          <t>2.287%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F199" t="inlineStr"/>
@@ -6694,23 +6714,23 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Imports MoMNOV</t>
         </is>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>0.2952%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F200" t="inlineStr"/>
@@ -6722,105 +6742,89 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr">
         <is>
-          <t>€13.4B</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>€14.8B</t>
-        </is>
-      </c>
+          <t>125.9</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr">
         <is>
-          <t>€15.0B</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Exports MoMNOV</t>
+          <t>30-Year JGB Auction</t>
         </is>
       </c>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+          <t>2.287%</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr"/>
       <c r="G202" t="inlineStr"/>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+          <t>0.2952%</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr"/>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204">
@@ -6836,104 +6840,124 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Imports MoMNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>€13.4B</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr"/>
+          <t>€14.8B</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>€15.0B</t>
+        </is>
+      </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>15-Year Index-Linked Obligacion Auction</t>
+          <t>Exports MoMNOV</t>
         </is>
       </c>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr">
         <is>
-          <t>1.297%</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr"/>
+          <t>-2.8%</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="G205" t="inlineStr"/>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>20-Year Obligacion Auction</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr">
         <is>
-          <t>3.527%</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>3-Year Bonos Auction</t>
+          <t>Imports MoMNOV</t>
         </is>
       </c>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr">
         <is>
-          <t>2.277%</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="n">
         <v>3</v>
@@ -6952,13 +6976,13 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>7-Year Obligacion Auction</t>
+          <t>15-Year Index-Linked Obligacion Auction</t>
         </is>
       </c>
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr">
         <is>
-          <t>2.692%</t>
+          <t>1.297%</t>
         </is>
       </c>
       <c r="F208" t="inlineStr"/>
@@ -6970,91 +6994,79 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>20-Year Obligacion Auction</t>
         </is>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>3.527%</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr"/>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>3-Year Bonos Auction</t>
         </is>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>2.277%</t>
         </is>
       </c>
       <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G210" t="inlineStr"/>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>10-Year OAT Auction</t>
+          <t>7-Year Obligacion Auction</t>
         </is>
       </c>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr">
         <is>
-          <t>3.24%</t>
+          <t>2.692%</t>
         </is>
       </c>
       <c r="F211" t="inlineStr"/>
@@ -7071,24 +7083,32 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>12-Year OAT Auction</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>3.04%</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213">
@@ -7099,24 +7119,28 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>20-Year OAT Auction</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr">
         <is>
-          <t>3.55%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214">
@@ -7132,13 +7156,13 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>30-Year OAT Auction</t>
+          <t>10-Year OAT Auction</t>
         </is>
       </c>
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
         <is>
-          <t>3.78%</t>
+          <t>3.24%</t>
         </is>
       </c>
       <c r="F214" t="inlineStr"/>
@@ -7150,23 +7174,23 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>12-Month BOT Auction</t>
+          <t>12-Year OAT Auction</t>
         </is>
       </c>
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr">
         <is>
-          <t>2.411%</t>
+          <t>3.04%</t>
         </is>
       </c>
       <c r="F215" t="inlineStr"/>
@@ -7178,31 +7202,27 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>20-Year OAT Auction</t>
         </is>
       </c>
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.55%</t>
         </is>
       </c>
       <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G216" t="inlineStr"/>
       <c r="H216" t="n">
         <v>3</v>
       </c>
@@ -7210,31 +7230,27 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYNOV</t>
+          <t>30-Year OAT Auction</t>
         </is>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>3.78%</t>
         </is>
       </c>
       <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>-1.0%</t>
-        </is>
-      </c>
+      <c r="G217" t="inlineStr"/>
       <c r="H217" t="n">
         <v>3</v>
       </c>
@@ -7242,23 +7258,23 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/03</t>
+          <t>12-Month BOT Auction</t>
         </is>
       </c>
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr">
         <is>
-          <t>$90.74B</t>
+          <t>2.411%</t>
         </is>
       </c>
       <c r="F218" t="inlineStr"/>
@@ -7270,17 +7286,17 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Manufacturing Production MoMNOV</t>
         </is>
       </c>
       <c r="D219" t="inlineStr"/>
@@ -7289,50 +7305,42 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F219" t="inlineStr"/>
       <c r="G219" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Manufacturing Production YoYNOV</t>
         </is>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr">
         <is>
-          <t>6.5%</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>-1.0%</t>
         </is>
       </c>
       <c r="H220" t="n">
@@ -7342,37 +7350,29 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Foreign Exchange ReservesJAN/03</t>
         </is>
       </c>
       <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr">
         <is>
-          <t>0.44%</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>0.50%</t>
-        </is>
-      </c>
-      <c r="G221" t="inlineStr">
-        <is>
-          <t>0.53%</t>
-        </is>
-      </c>
+          <t>$90.74B</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222">
@@ -7383,28 +7383,28 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr">
         <is>
-          <t>4.55%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>4.35%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H222" t="n">
@@ -7419,28 +7419,28 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr">
         <is>
-          <t>0.05%</t>
+          <t>6.5%</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>0.42%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="H223" t="n">
@@ -7460,123 +7460,131 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr">
         <is>
-          <t>3.58%</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>3.56%</t>
+          <t>0.50%</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>3.54%</t>
+          <t>0.53%</t>
         </is>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Challenger Job CutsDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr">
         <is>
-          <t>57.727K</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr"/>
+          <t>4.55%</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>4.35%</t>
+        </is>
+      </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>65K</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/04</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr">
         <is>
-          <t>211K</t>
+          <t>0.05%</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>217K</t>
+          <t>0.42%</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>213K</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsDEC/28</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr">
         <is>
-          <t>1844K</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr"/>
+          <t>3.58%</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>3.56%</t>
+        </is>
+      </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>1848K</t>
+          <t>3.54%</t>
         </is>
       </c>
       <c r="H227" t="n">
@@ -7586,7 +7594,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -7596,19 +7604,19 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/04</t>
+          <t>Challenger Job CutsDEC</t>
         </is>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr">
         <is>
-          <t>223.25K</t>
+          <t>57.727K</t>
         </is>
       </c>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr">
         <is>
-          <t>224K</t>
+          <t>65K</t>
         </is>
       </c>
       <c r="H228" t="n">
@@ -8487,7 +8495,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>150K</t>
+          <t>160K</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -8743,7 +8751,11 @@
           <t>22K</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr"/>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
+      </c>
       <c r="G263" t="inlineStr">
         <is>
           <t>29K</t>
@@ -8779,7 +8791,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>130K</t>
+          <t>134K</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -8885,7 +8897,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>74.5</t>
+          <t>73.9</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -9340,7 +9352,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
@@ -9378,7 +9390,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
@@ -9416,7 +9428,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>-2.4%</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
@@ -14772,28 +14784,136 @@
       </c>
     </row>
     <row r="460">
-      <c r="A460" t="inlineStr"/>
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsNOV</t>
+          <t>Bonos Auction</t>
         </is>
       </c>
       <c r="D460" t="inlineStr"/>
-      <c r="E460" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="E460" t="inlineStr"/>
       <c r="F460" t="inlineStr"/>
       <c r="G460" t="inlineStr"/>
       <c r="H460" t="inlineStr">
         <is>
           <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>Index-Linked Obligacion Auction</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr"/>
+      <c r="E461" t="inlineStr"/>
+      <c r="F461" t="inlineStr"/>
+      <c r="G461" t="inlineStr"/>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Obligacion Auction</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr"/>
+      <c r="E462" t="inlineStr"/>
+      <c r="F462" t="inlineStr"/>
+      <c r="G462" t="inlineStr"/>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Balance of TradeNOV</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr"/>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>€6.8B</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr"/>
+      <c r="G463" t="inlineStr"/>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr"/>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Consumer Inflation ExpectationsNOV</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr"/>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr"/>
+      <c r="G464" t="inlineStr"/>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
@@ -5388,23 +5388,23 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>10-Year Bund Auction</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>2.798%</t>
+          <t>2.07%</t>
         </is>
       </c>
       <c r="F154" t="inlineStr"/>
@@ -5426,13 +5426,13 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>2.632%</t>
+          <t>2.798%</t>
         </is>
       </c>
       <c r="F155" t="inlineStr"/>
@@ -5444,23 +5444,23 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC/27</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>10.7%</t>
+          <t>2.632%</t>
         </is>
       </c>
       <c r="F156" t="inlineStr"/>
@@ -5472,37 +5472,29 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>M3 Money Supply YoYDEC/27</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>10.7%</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158">
@@ -5518,27 +5510,27 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>5.8%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -5549,24 +5541,32 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/03</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>6.97%</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
+          <t>5.8%</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160">
@@ -5582,19 +5582,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/03</t>
+          <t>MBA 30-Year Mortgage RateJAN/03</t>
         </is>
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr">
         <is>
-          <t>-12.6%</t>
+          <t>6.97%</t>
         </is>
       </c>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
@@ -5610,13 +5610,13 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/03</t>
+          <t>MBA Mortgage ApplicationsJAN/03</t>
         </is>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
-          <t>174.9</t>
+          <t>-12.6%</t>
         </is>
       </c>
       <c r="F161" t="inlineStr"/>
@@ -5638,13 +5638,13 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/03</t>
+          <t>MBA Mortgage Market IndexJAN/03</t>
         </is>
       </c>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
         <is>
-          <t>395.1</t>
+          <t>174.9</t>
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
@@ -5666,13 +5666,13 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/03</t>
+          <t>MBA Mortgage Refinance IndexJAN/03</t>
         </is>
       </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
-          <t>136.7</t>
+          <t>395.1</t>
         </is>
       </c>
       <c r="F163" t="inlineStr"/>
@@ -5684,7 +5684,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5694,33 +5694,25 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>ADP Employment ChangeDEC</t>
+          <t>MBA Purchase IndexJAN/03</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
-          <t>146K</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>139K</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>140K</t>
-        </is>
-      </c>
+          <t>136.7</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5730,13 +5722,25 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>ADP Employment ChangeDEC</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>146K</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>139K</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>140K</t>
+        </is>
+      </c>
       <c r="H165" t="n">
         <v>2</v>
       </c>
@@ -5754,25 +5758,13 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/04</t>
+          <t>Fed Waller Speech</t>
         </is>
       </c>
       <c r="D166" t="inlineStr"/>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>211K</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>217K</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>213K</t>
-        </is>
-      </c>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
       <c r="H166" t="n">
         <v>2</v>
       </c>
@@ -5790,23 +5782,27 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsDEC/28</t>
+          <t>Initial Jobless ClaimsJAN/04</t>
         </is>
       </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr">
         <is>
-          <t>1844K</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr"/>
+          <t>211K</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>217K</t>
+        </is>
+      </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>1848K</t>
+          <t>213K</t>
         </is>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
@@ -5822,19 +5818,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/04</t>
+          <t>Continuing Jobless ClaimsDEC/28</t>
         </is>
       </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr">
         <is>
-          <t>223.25K</t>
+          <t>1844K</t>
         </is>
       </c>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr">
         <is>
-          <t>224K</t>
+          <t>1848K</t>
         </is>
       </c>
       <c r="H168" t="n">
@@ -5844,27 +5840,31 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Treasury Cash BalanceDEC</t>
+          <t>Jobless Claims 4-week AverageJAN/04</t>
         </is>
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
-          <t>TRY-62.220B</t>
+          <t>223.25K</t>
         </is>
       </c>
       <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>224K</t>
+        </is>
+      </c>
       <c r="H169" t="n">
         <v>3</v>
       </c>
@@ -5872,29 +5872,29 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
+          <t>Treasury Cash BalanceDEC</t>
         </is>
       </c>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr">
         <is>
-          <t>-1.178M</t>
+          <t>TRY-62.220B</t>
         </is>
       </c>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171">
@@ -5910,13 +5910,13 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/03</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
         <is>
-          <t>7.717M</t>
+          <t>-1.178M</t>
         </is>
       </c>
       <c r="F171" t="inlineStr"/>
@@ -5938,19 +5938,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/03</t>
+          <t>EIA Gasoline Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr">
         <is>
-          <t>0.323M</t>
+          <t>7.717M</t>
         </is>
       </c>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -5966,13 +5966,13 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
+          <t>EIA Crude Oil Imports ChangeJAN/03</t>
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
-          <t>-0.142M</t>
+          <t>0.323M</t>
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
@@ -5994,13 +5994,13 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr">
         <is>
-          <t>0.099M</t>
+          <t>-0.142M</t>
         </is>
       </c>
       <c r="F174" t="inlineStr"/>
@@ -6022,13 +6022,13 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/03</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
         </is>
       </c>
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr">
         <is>
-          <t>6.406M</t>
+          <t>0.099M</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
@@ -6050,13 +6050,13 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/03</t>
+          <t>EIA Distillate Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
         <is>
-          <t>-0.959M</t>
+          <t>6.406M</t>
         </is>
       </c>
       <c r="F176" t="inlineStr"/>
@@ -6078,13 +6078,13 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
+          <t>EIA Gasoline Production ChangeJAN/03</t>
         </is>
       </c>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
         <is>
-          <t>-0.416M</t>
+          <t>-0.959M</t>
         </is>
       </c>
       <c r="F177" t="inlineStr"/>
@@ -6106,13 +6106,13 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr">
         <is>
-          <t>0.041M</t>
+          <t>-0.416M</t>
         </is>
       </c>
       <c r="F178" t="inlineStr"/>
@@ -6124,7 +6124,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -6134,13 +6134,13 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
         </is>
       </c>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr">
         <is>
-          <t>4.195%</t>
+          <t>0.041M</t>
         </is>
       </c>
       <c r="F179" t="inlineStr"/>
@@ -6152,23 +6152,23 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>2-Year Bond Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr">
         <is>
-          <t>3.029%</t>
+          <t>4.195%</t>
         </is>
       </c>
       <c r="F180" t="inlineStr"/>
@@ -6185,18 +6185,18 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
+          <t>2-Year Bond Auction</t>
         </is>
       </c>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
-          <t>-116Bcf</t>
+          <t>3.029%</t>
         </is>
       </c>
       <c r="F181" t="inlineStr"/>
@@ -6208,7 +6208,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -6218,13 +6218,13 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
-          <t>4.535%</t>
+          <t>-116Bcf</t>
         </is>
       </c>
       <c r="F182" t="inlineStr"/>
@@ -6234,21 +6234,25 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr"/>
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Motorbike Sales YoYDEC</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr">
         <is>
-          <t>-10.3%</t>
+          <t>4.535%</t>
         </is>
       </c>
       <c r="F183" t="inlineStr"/>
@@ -6261,26 +6265,22 @@
       <c r="A184" t="inlineStr"/>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIDEC</t>
+          <t>Motorbike Sales YoYDEC</t>
         </is>
       </c>
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>-10.3%</t>
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>51.8</t>
-        </is>
-      </c>
+      <c r="G184" t="inlineStr"/>
       <c r="H184" t="n">
         <v>3</v>
       </c>
@@ -6289,22 +6289,26 @@
       <c r="A185" t="inlineStr"/>
       <c r="B185" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMDEC</t>
+          <t>ABSA Manufacturing PMIDEC</t>
         </is>
       </c>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>51.8</t>
+        </is>
+      </c>
       <c r="H185" t="n">
         <v>3</v>
       </c>
@@ -6318,13 +6322,13 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYDEC</t>
+          <t>Used Car Prices MoMDEC</t>
         </is>
       </c>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F186" t="inlineStr"/>
@@ -6334,50 +6338,42 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>Thursday January 09 2025</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr"/>
-      <c r="C187" t="inlineStr"/>
+      <c r="A187" t="inlineStr"/>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Used Car Prices YoYDEC</t>
+        </is>
+      </c>
       <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr"/>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr"/>
+      <c r="H187" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYNOV</t>
-        </is>
-      </c>
+          <t>Thursday January 09 2025</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
+      <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H188" t="n">
-        <v>3</v>
-      </c>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -6387,26 +6383,34 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>FOMC Minutes</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D189" t="inlineStr"/>
-      <c r="E189" t="inlineStr"/>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>-2%</t>
+        </is>
+      </c>
       <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -6416,59 +6420,47 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeNOV</t>
+          <t>FOMC Minutes</t>
         </is>
       </c>
       <c r="D190" t="inlineStr"/>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>$19.24B</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>$12B</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>$14.0B</t>
-        </is>
-      </c>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Average Cash Earnings YoYNOV</t>
+          <t>Consumer Credit ChangeNOV</t>
         </is>
       </c>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>$19.24B</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>$12B</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>$14.0B</t>
         </is>
       </c>
       <c r="H191" t="n">
@@ -6488,19 +6480,23 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Overtime Pay YoYNOV</t>
+          <t>Average Cash Earnings YoYNOV</t>
         </is>
       </c>
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr">
         <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr"/>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H192" t="n">
@@ -6510,7 +6506,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -6520,17 +6516,21 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentDEC/28</t>
+          <t>Overtime Pay YoYNOV</t>
         </is>
       </c>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr">
         <is>
-          <t>¥-919.2B</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H193" t="n">
         <v>3</v>
       </c>
@@ -6548,11 +6548,15 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/04</t>
+          <t>Foreign Bond InvestmentDEC/28</t>
         </is>
       </c>
       <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr"/>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>¥-919.2B</t>
+        </is>
+      </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="n">
@@ -6572,7 +6576,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/04</t>
+          <t>Foreign Bond InvestmentJAN/04</t>
         </is>
       </c>
       <c r="D195" t="inlineStr"/>
@@ -6596,15 +6600,11 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersDEC/28</t>
+          <t>Stock Investment by ForeignersJAN/04</t>
         </is>
       </c>
       <c r="D196" t="inlineStr"/>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>¥-1022.6B</t>
-        </is>
-      </c>
+      <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="n">
@@ -6614,37 +6614,29 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Stock Investment by ForeignersDEC/28</t>
         </is>
       </c>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr">
         <is>
-          <t>A$5.953B</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>A$5.900B</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>A$6B</t>
-        </is>
-      </c>
+          <t>¥-1022.6B</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr"/>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198">
@@ -6660,27 +6652,27 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>A$5.953B</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>A$5.900B</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>A$6B</t>
         </is>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -6696,19 +6688,27 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Exports MoMNOV</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr">
         <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
@@ -6724,13 +6724,13 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Imports MoMNOV</t>
+          <t>Exports MoMNOV</t>
         </is>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F200" t="inlineStr"/>
@@ -6742,31 +6742,27 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Imports MoMNOV</t>
         </is>
       </c>
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr">
         <is>
-          <t>125.9</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
+      <c r="G201" t="inlineStr"/>
       <c r="H201" t="n">
         <v>3</v>
       </c>
@@ -6774,27 +6770,31 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>30-Year JGB Auction</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
-          <t>2.287%</t>
+          <t>125.9</t>
         </is>
       </c>
       <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
       <c r="H202" t="n">
         <v>3</v>
       </c>
@@ -6812,13 +6812,13 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>30-Year JGB Auction</t>
         </is>
       </c>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
-          <t>0.2952%</t>
+          <t>2.287%</t>
         </is>
       </c>
       <c r="F203" t="inlineStr"/>
@@ -6830,37 +6830,29 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
-          <t>€13.4B</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>€14.8B</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>€15.0B</t>
-        </is>
-      </c>
+          <t>0.2952%</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205">
@@ -6876,23 +6868,27 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Exports MoMNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>€13.4B</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="G205" t="inlineStr"/>
+          <t>€14.8B</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>€15.0B</t>
+        </is>
+      </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -6908,25 +6904,21 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Exports MoMNOV</t>
         </is>
       </c>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr"/>
       <c r="H206" t="n">
         <v>2</v>
       </c>
@@ -6944,48 +6936,56 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Imports MoMNOV</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G207" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>15-Year Index-Linked Obligacion Auction</t>
+          <t>Imports MoMNOV</t>
         </is>
       </c>
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr">
         <is>
-          <t>1.297%</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="G208" t="inlineStr"/>
       <c r="H208" t="n">
         <v>3</v>
@@ -7004,13 +7004,13 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>20-Year Obligacion Auction</t>
+          <t>15-Year Index-Linked Obligacion Auction</t>
         </is>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr">
         <is>
-          <t>3.527%</t>
+          <t>1.297%</t>
         </is>
       </c>
       <c r="F209" t="inlineStr"/>
@@ -7032,13 +7032,13 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>3-Year Bonos Auction</t>
+          <t>20-Year Obligacion Auction</t>
         </is>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr">
         <is>
-          <t>2.277%</t>
+          <t>3.527%</t>
         </is>
       </c>
       <c r="F210" t="inlineStr"/>
@@ -7060,13 +7060,13 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>7-Year Obligacion Auction</t>
+          <t>3-Year Bonos Auction</t>
         </is>
       </c>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr">
         <is>
-          <t>2.692%</t>
+          <t>2.277%</t>
         </is>
       </c>
       <c r="F211" t="inlineStr"/>
@@ -7078,37 +7078,29 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>7-Year Obligacion Auction</t>
         </is>
       </c>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>2.692%</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="inlineStr"/>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213">
@@ -7124,19 +7116,23 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr"/>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H213" t="n">
@@ -7151,24 +7147,28 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>10-Year OAT Auction</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
         <is>
-          <t>3.24%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215">
@@ -7184,13 +7184,13 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>12-Year OAT Auction</t>
+          <t>10-Year OAT Auction</t>
         </is>
       </c>
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr">
         <is>
-          <t>3.04%</t>
+          <t>3.24%</t>
         </is>
       </c>
       <c r="F215" t="inlineStr"/>
@@ -7212,13 +7212,13 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>20-Year OAT Auction</t>
+          <t>12-Year OAT Auction</t>
         </is>
       </c>
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr">
         <is>
-          <t>3.55%</t>
+          <t>3.04%</t>
         </is>
       </c>
       <c r="F216" t="inlineStr"/>
@@ -7240,13 +7240,13 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>30-Year OAT Auction</t>
+          <t>20-Year OAT Auction</t>
         </is>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
         <is>
-          <t>3.78%</t>
+          <t>3.55%</t>
         </is>
       </c>
       <c r="F217" t="inlineStr"/>
@@ -7258,23 +7258,23 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>12-Month BOT Auction</t>
+          <t>30-Year OAT Auction</t>
         </is>
       </c>
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr">
         <is>
-          <t>2.411%</t>
+          <t>3.78%</t>
         </is>
       </c>
       <c r="F218" t="inlineStr"/>
@@ -7286,31 +7286,27 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>12-Month BOT Auction</t>
         </is>
       </c>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.411%</t>
         </is>
       </c>
       <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G219" t="inlineStr"/>
       <c r="H219" t="n">
         <v>3</v>
       </c>
@@ -7328,19 +7324,19 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYNOV</t>
+          <t>Manufacturing Production MoMNOV</t>
         </is>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr">
         <is>
-          <t>-1.0%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H220" t="n">
@@ -7350,27 +7346,31 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/03</t>
+          <t>Manufacturing Production YoYNOV</t>
         </is>
       </c>
       <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr">
         <is>
-          <t>$90.74B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>-1.0%</t>
+        </is>
+      </c>
       <c r="H221" t="n">
         <v>3</v>
       </c>
@@ -7378,37 +7378,29 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Foreign Exchange ReservesJAN/03</t>
         </is>
       </c>
       <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+          <t>$90.74B</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr"/>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223">
@@ -7424,27 +7416,27 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224">
@@ -7455,32 +7447,32 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr">
         <is>
-          <t>0.44%</t>
+          <t>6.5%</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>0.50%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>0.53%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225">
@@ -7496,23 +7488,23 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr">
         <is>
-          <t>4.55%</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>4.35%</t>
+          <t>0.50%</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>0.53%</t>
         </is>
       </c>
       <c r="H225" t="n">
@@ -7532,27 +7524,27 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr">
         <is>
-          <t>0.05%</t>
+          <t>4.55%</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>0.42%</t>
+          <t>4.35%</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227">
@@ -7568,23 +7560,23 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr">
         <is>
-          <t>3.58%</t>
+          <t>0.05%</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>3.56%</t>
+          <t>0.42%</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>3.54%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H227" t="n">
@@ -7594,29 +7586,33 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Challenger Job CutsDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr">
         <is>
-          <t>57.727K</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr"/>
+          <t>3.58%</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>3.56%</t>
+        </is>
+      </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>65K</t>
+          <t>3.54%</t>
         </is>
       </c>
       <c r="H228" t="n">
@@ -7626,7 +7622,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -7636,47 +7632,47 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Fed Harker Speech</t>
+          <t>Challenger Job CutsDEC</t>
         </is>
       </c>
       <c r="D229" t="inlineStr"/>
-      <c r="E229" t="inlineStr"/>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>57.727K</t>
+        </is>
+      </c>
       <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>65K</t>
+        </is>
+      </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>07:40 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Auto Exports YoYDEC</t>
+          <t>Fed Harker Speech</t>
         </is>
       </c>
       <c r="D230" t="inlineStr"/>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+      <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="G230" t="inlineStr"/>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231">
@@ -7692,19 +7688,19 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Auto Production YoYDEC</t>
+          <t>Auto Exports YoYDEC</t>
         </is>
       </c>
       <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="inlineStr">
         <is>
-          <t>16.0%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="H231" t="n">
@@ -7714,7 +7710,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:40 PM</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -7724,15 +7720,23 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Monetary Policy Meeting Minutes</t>
+          <t>Auto Production YoYDEC</t>
         </is>
       </c>
       <c r="D232" t="inlineStr"/>
-      <c r="E232" t="inlineStr"/>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
       <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>16.0%</t>
+        </is>
+      </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233">
@@ -7743,38 +7747,26 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMNOV</t>
+          <t>Monetary Policy Meeting Minutes</t>
         </is>
       </c>
       <c r="D233" t="inlineStr"/>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" t="inlineStr"/>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -7784,17 +7776,25 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>NY Fed Treasury Purchases 1 to 2.5 yrs</t>
+          <t>Wholesale Inventories MoMNOV</t>
         </is>
       </c>
       <c r="D234" t="inlineStr"/>
-      <c r="E234" t="inlineStr"/>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>$25 million</t>
-        </is>
-      </c>
-      <c r="G234" t="inlineStr"/>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="H234" t="n">
         <v>3</v>
       </c>
@@ -7802,7 +7802,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -7812,16 +7812,16 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>NY Fed Treasury Purchases 1 to 2.5 yrs</t>
         </is>
       </c>
       <c r="D235" t="inlineStr"/>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>4.265%</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr"/>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>$25 million</t>
+        </is>
+      </c>
       <c r="G235" t="inlineStr"/>
       <c r="H235" t="n">
         <v>3</v>
@@ -7840,13 +7840,13 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr">
         <is>
-          <t>4.240%</t>
+          <t>4.265%</t>
         </is>
       </c>
       <c r="F236" t="inlineStr"/>
@@ -7858,23 +7858,23 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>10-Year Bond Auction</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr">
         <is>
-          <t>3.142%</t>
+          <t>4.240%</t>
         </is>
       </c>
       <c r="F237" t="inlineStr"/>
@@ -7891,18 +7891,18 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/09</t>
+          <t>10-Year Bond Auction</t>
         </is>
       </c>
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr">
         <is>
-          <t>6.13%</t>
+          <t>3.142%</t>
         </is>
       </c>
       <c r="F238" t="inlineStr"/>
@@ -7924,13 +7924,13 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/09</t>
+          <t>15-Year Mortgage RateJAN/09</t>
         </is>
       </c>
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr">
         <is>
-          <t>6.91%</t>
+          <t>6.13%</t>
         </is>
       </c>
       <c r="F239" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>11:10 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -7952,69 +7952,71 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Fed Barkin Speech</t>
+          <t>30-Year Mortgage RateJAN/09</t>
         </is>
       </c>
       <c r="D240" t="inlineStr"/>
-      <c r="E240" t="inlineStr"/>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>6.91%</t>
+        </is>
+      </c>
       <c r="F240" t="inlineStr"/>
       <c r="G240" t="inlineStr"/>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr"/>
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>11:10 PM</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesDEC</t>
+          <t>Fed Barkin Speech</t>
         </is>
       </c>
       <c r="D241" t="inlineStr"/>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>48.585K</t>
-        </is>
-      </c>
+      <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr">
-        <is>
-          <t>45.0K</t>
-        </is>
-      </c>
+      <c r="G241" t="inlineStr"/>
       <c r="H241" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A242" t="inlineStr"/>
       <c r="B242" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/03</t>
+          <t>Total New Vehicle SalesDEC</t>
         </is>
       </c>
       <c r="D242" t="inlineStr"/>
-      <c r="E242" t="inlineStr"/>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>48.585K</t>
+        </is>
+      </c>
       <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>45.0K</t>
+        </is>
+      </c>
+      <c r="H242" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="243">

--- a/Input_data/IST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H467"/>
+  <dimension ref="A1:H469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1665,7 +1665,11 @@
           <t>S&amp;P Global Services PMIDEC</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>53.6</t>
@@ -1697,7 +1701,11 @@
           <t>S&amp;P Global Composite PMIDEC</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>51.5</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>53.5</t>
@@ -1729,7 +1737,11 @@
           <t>Inflation Rate YoY PrelDEC</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>2.2%</t>
@@ -1765,7 +1777,11 @@
           <t>Inflation Rate MoM PrelDEC</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>-0.2%</t>
@@ -1801,7 +1817,11 @@
           <t>Harmonised Inflation Rate YoY PrelDEC</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>2.4%</t>
@@ -1837,7 +1857,11 @@
           <t>Harmonised Inflation Rate MoM PrelDEC</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>-0.7%</t>
@@ -14201,10 +14225,14 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="F441" t="inlineStr"/>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G441" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H441" t="inlineStr">
@@ -14238,7 +14266,7 @@
       <c r="F442" t="inlineStr"/>
       <c r="G442" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H442" t="inlineStr">
@@ -14269,10 +14297,14 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="F443" t="inlineStr"/>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
       <c r="G443" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="H443" t="inlineStr">
@@ -14303,10 +14335,14 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="F444" t="inlineStr"/>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="G444" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H444" t="inlineStr">
@@ -14984,28 +15020,96 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" t="inlineStr"/>
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>06:30 PM</t>
+        </is>
+      </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsNOV</t>
+          <t>NIESR Monthly GDP TrackerDEC</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
       <c r="E467" t="inlineStr">
         <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr"/>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>06:45 PM</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>Housing StartsDEC</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr"/>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>262.4K</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr"/>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>220K</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr"/>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>Consumer Inflation ExpectationsNOV</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr"/>
+      <c r="E469" t="inlineStr">
+        <is>
           <t>2.5%</t>
         </is>
       </c>
-      <c r="F467" t="inlineStr"/>
-      <c r="G467" t="inlineStr"/>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="F469" t="inlineStr"/>
+      <c r="G469" t="inlineStr"/>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H469"/>
+  <dimension ref="A1:H486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1897,7 +1897,11 @@
           <t>12-Month BTF Auction</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.435%</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>2.372%</t>
@@ -1925,7 +1929,11 @@
           <t>3-Month BTF Auction</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.704%</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>2.770%</t>
@@ -1953,7 +1961,11 @@
           <t>6-Month BTF Auction</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.592%</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>2.575%</t>
@@ -15088,28 +15100,550 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" t="inlineStr"/>
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsNOV</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D469" t="inlineStr"/>
       <c r="E469" t="inlineStr">
         <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr"/>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>Export Prices MoMDEC</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr"/>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr"/>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Import Prices MoMDEC</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr"/>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr"/>
+      <c r="G471" t="inlineStr"/>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>Initial Jobless ClaimsJAN/11</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr"/>
+      <c r="E472" t="inlineStr"/>
+      <c r="F472" t="inlineStr"/>
+      <c r="G472" t="inlineStr"/>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>Philadelphia Fed Manufacturing IndexJAN</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr"/>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>-16.4</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr"/>
+      <c r="G473" t="inlineStr"/>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Retail Sales Ex Autos MoMDEC</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr"/>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr"/>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Continuing Jobless ClaimsJAN/04</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr"/>
+      <c r="E475" t="inlineStr"/>
+      <c r="F475" t="inlineStr"/>
+      <c r="G475" t="inlineStr"/>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>Export Prices YoYDEC</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr"/>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr"/>
+      <c r="G476" t="inlineStr"/>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Import Prices YoYDEC</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr"/>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr"/>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Jobless Claims 4-week AverageJAN/11</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr"/>
+      <c r="E478" t="inlineStr"/>
+      <c r="F478" t="inlineStr"/>
+      <c r="G478" t="inlineStr"/>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Philly Fed Business ConditionsJAN</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr"/>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>30.7</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr"/>
+      <c r="G479" t="inlineStr"/>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Philly Fed CAPEX IndexJAN</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr"/>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>18.8</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr"/>
+      <c r="G480" t="inlineStr"/>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Philly Fed EmploymentJAN</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr"/>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>6.6</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr"/>
+      <c r="G481" t="inlineStr"/>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>Philly Fed New OrdersJAN</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr"/>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>-4.3</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr"/>
+      <c r="G482" t="inlineStr"/>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>Philly Fed Prices PaidJAN</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr"/>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr"/>
+      <c r="G483" t="inlineStr"/>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr"/>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr"/>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYDEC</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr"/>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr"/>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr"/>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Consumer Inflation ExpectationsNOV</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr"/>
+      <c r="E486" t="inlineStr">
+        <is>
           <t>2.5%</t>
         </is>
       </c>
-      <c r="F469" t="inlineStr"/>
-      <c r="G469" t="inlineStr"/>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="F486" t="inlineStr"/>
+      <c r="G486" t="inlineStr"/>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H486"/>
+  <dimension ref="A1:H489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2017,7 +2017,11 @@
           <t>S&amp;P Global Composite PMIDEC</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>51.5</t>
@@ -2049,7 +2053,11 @@
           <t>S&amp;P Global Services PMIDEC</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>51.2</t>
@@ -2081,7 +2089,11 @@
           <t>S&amp;P Global Composite PMI FinalDEC</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>55.4</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>54.9</t>
@@ -2117,7 +2129,11 @@
           <t>S&amp;P Global Services PMI FinalDEC</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>56.1</t>
@@ -2153,10 +2169,14 @@
           <t>Factory Orders MoMNOV</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2189,10 +2209,14 @@
           <t>Factory Orders ex TransportationNOV</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -2374,81 +2398,85 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr"/>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Total Vehicle SalesDEC</t>
-        </is>
-      </c>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Tuesday January 07 2025</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>16.5M</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>16.5M</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>16.3M</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>3</v>
-      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Tuesday January 07 2025</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
+          <t>05:31 AM</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>BRC Retail Sales Monitor YoYDEC</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>-3.4%</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>BRC Retail Sales Monitor YoYDEC</t>
+          <t>Building Permits MoM PrelNOV</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -2468,57 +2496,49 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelNOV</t>
+          <t>Private House Approvals MoM PrelNOV</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+          <t>-5.2%</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelNOV</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>1.084%</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
         <v>3</v>
       </c>
@@ -2536,13 +2556,13 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1.084%</t>
+          <t>0.1255%</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -2554,23 +2574,23 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0.1255%</t>
+          <t>3.19%</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -2592,13 +2612,13 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3.19%</t>
+          <t>3.31%</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -2610,29 +2630,37 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Halifax House Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3.31%</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -2648,23 +2676,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMDEC</t>
+          <t>Halifax House Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+          <t>4.8%</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>4.6%</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -2674,33 +2698,37 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYDEC</t>
+          <t>Inflation Rate YoY PrelDEC</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr"/>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>4.6%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2716,27 +2744,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelDEC</t>
+          <t>Inflation Rate MoM PrelDEC</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -2752,27 +2780,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelDEC</t>
+          <t>Harmonised Inflation Rate YoY PrelDEC</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -2788,25 +2816,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelDEC</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+          <t>€275.572B</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
         <v>3</v>
       </c>
@@ -2824,17 +2844,25 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Harmonised Inflation Rate MoM PrelDEC</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>€275.572B</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H70" t="n">
         <v>3</v>
       </c>
@@ -2842,33 +2870,29 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelDEC</t>
+          <t>IPC-Fipe Inflation MoMDEC</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>1.17%</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -2878,29 +2902,29 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMDEC</t>
+          <t>HCOB Construction PMIDEC</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.17%</t>
+          <t>42.7</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -2915,7 +2939,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2926,13 +2950,13 @@
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>42.7</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -2947,7 +2971,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2958,17 +2982,17 @@
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>37.8</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -2979,7 +3003,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2990,23 +3014,23 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>37.8</t>
+          <t>49</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3016,23 +3040,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>HCOB Construction PMIDEC</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>48.5</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr"/>
+          <t>5.8%</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6%</t>
+        </is>
+      </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>5.8%</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3043,100 +3071,92 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>5.8%</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>6%</t>
-        </is>
-      </c>
+          <t>S$505.7B</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>5.8%</t>
+          <t>S$502.0B</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>S&amp;P Global Construction PMIDEC</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>S$505.7B</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr"/>
+          <t>55.2</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>54.4</t>
+        </is>
+      </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>S$502.0B</t>
+          <t>54.8</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>S&amp;P Global Construction PMIDEC</t>
+          <t>12-Month Letras Auction</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>55.2</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>54.4</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>54.8</t>
-        </is>
-      </c>
+          <t>2.207%</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
@@ -3152,13 +3172,13 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>12-Month Letras Auction</t>
+          <t>6-Month Letras Auction</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2.207%</t>
+          <t>2.552%</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -3170,29 +3190,37 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>6-Month Letras Auction</t>
+          <t>Inflation Rate YoY FlashDEC</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2.552%</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3208,23 +3236,23 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashDEC</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>6.4%</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>6.4%</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -3244,27 +3272,27 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>Core Inflation Rate YoY FlashDEC</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>6.4%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>6.4%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -3280,23 +3308,19 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashDEC</t>
+          <t>Inflation Rate MoM FlashDEC</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -3316,23 +3340,23 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashDEC</t>
+          <t>CPI FlashDEC</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>126.62</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
@@ -3343,28 +3367,32 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CPI FlashDEC</t>
+          <t>Inflation Rate YoY PrelDEC</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr"/>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,27 +3408,27 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelDEC</t>
+          <t>Inflation Rate MoM PrelDEC</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -3416,27 +3444,27 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelDEC</t>
+          <t>Harmonised Inflation Rate YoY PrelDEC</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
@@ -3452,23 +3480,23 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelDEC</t>
+          <t>Harmonised Inflation Rate MoM PrelDEC</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -3483,30 +3511,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelDEC</t>
+          <t>30-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>4.747%</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="n">
         <v>3</v>
       </c>
@@ -3514,23 +3534,23 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>30-Year Treasury Gilt Auction</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>4.747%</t>
+          <t>1.94%</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -3542,27 +3562,31 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>PPI MoMNOV</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1.94%</t>
+          <t>0.94%</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H92" t="n">
         <v>3</v>
       </c>
@@ -3580,19 +3604,19 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>PPI MoMNOV</t>
+          <t>PPI YoYNOV</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0.94%</t>
+          <t>5.89%</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>5.5%</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -3607,58 +3631,50 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>PPI YoYNOV</t>
+          <t>Fiscal Year GDP Growth Prel2025-24</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>5.89%</t>
+          <t>8.2%</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>6.5%</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Fiscal Year GDP Growth Prel2025-24</t>
+          <t>Fed Barkin Speech</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>8.2%</t>
-        </is>
-      </c>
+      <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>6.5%</t>
-        </is>
-      </c>
+      <c r="G95" t="inlineStr"/>
       <c r="H95" t="n">
         <v>2</v>
       </c>
@@ -3666,25 +3682,37 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Fed Barkin Speech</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>C$-0.92B</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>C$-1B</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>C$-1.5B</t>
+        </is>
+      </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3700,27 +3728,23 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>ExportsNOV</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>C$-0.92B</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>C$-1B</t>
-        </is>
-      </c>
+          <t>C$64.22B</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>C$-1.5B</t>
+          <t>C$64.0B</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -3736,19 +3760,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>ImportsNOV</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>C$64.22B</t>
+          <t>C$65.14B</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>C$64.0B</t>
+          <t>C$65.5B</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -3763,28 +3787,32 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>C$65.14B</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr"/>
+          <t>$-73.8B</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>$-78B</t>
+        </is>
+      </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>C$65.5B</t>
+          <t>$-70B</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -3800,23 +3828,19 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>ExportsNOV</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>$-73.8B</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>$-78B</t>
-        </is>
-      </c>
+          <t>$265.7B</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>$-70B</t>
+          <t>$264B</t>
         </is>
       </c>
       <c r="H100" t="n">
@@ -3836,19 +3860,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>ImportsNOV</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>$265.7B</t>
+          <t>$339.6B</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>$264B</t>
+          <t>$334B</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -3858,7 +3882,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3868,51 +3892,55 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>Redbook YoYJAN/04</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>$339.6B</t>
+          <t>7.1%</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>$334B</t>
-        </is>
-      </c>
+      <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/04</t>
+          <t>Ivey PMI s.aDEC</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>7.1%</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
+          <t>52.3</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -3923,23 +3951,23 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Ivey PMI s.aDEC</t>
+          <t>ISM Services PMIDEC</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -3964,23 +3992,23 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>ISM Services PMIDEC</t>
+          <t>JOLTs Job OpeningsNOV</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>7.744M</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>7.70M</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>7.69M</t>
         </is>
       </c>
       <c r="H105" t="n">
@@ -4000,27 +4028,23 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsNOV</t>
+          <t>ISM Services Business ActivityDEC</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>7.744M</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>7.70M</t>
-        </is>
-      </c>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
-          <t>7.69M</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107">
@@ -4036,19 +4060,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityDEC</t>
+          <t>ISM Services EmploymentDEC</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -4068,19 +4092,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ISM Services EmploymentDEC</t>
+          <t>ISM Services New OrdersDEC</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="H108" t="n">
@@ -4100,19 +4124,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersDEC</t>
+          <t>ISM Services PricesDEC</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="H109" t="n">
@@ -4132,19 +4156,19 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ISM Services PricesDEC</t>
+          <t>JOLTs Job QuitsNOV</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>3.326M</t>
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>3.31M</t>
         </is>
       </c>
       <c r="H110" t="n">
@@ -4154,7 +4178,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4164,21 +4188,17 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsNOV</t>
+          <t>42-Day Bill Auction</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>3.326M</t>
+          <t>4.280%</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>3.31M</t>
-        </is>
-      </c>
+      <c r="G111" t="inlineStr"/>
       <c r="H111" t="n">
         <v>3</v>
       </c>
@@ -4186,7 +4206,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4196,13 +4216,13 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>42-Day Bill Auction</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>4.280%</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
@@ -4212,25 +4232,21 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A113" t="inlineStr"/>
       <c r="B113" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>2.545%</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
@@ -4243,22 +4259,30 @@
       <c r="A114" t="inlineStr"/>
       <c r="B114" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2.545%</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
+          <t>$3.266T</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>$3.25T</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>$3.25T</t>
+        </is>
+      </c>
       <c r="H114" t="n">
         <v>3</v>
       </c>
@@ -4267,30 +4291,22 @@
       <c r="A115" t="inlineStr"/>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Baden Wuerttemberg CPI MoMDEC</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>$3.266T</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>$3.25T</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>$3.25T</t>
-        </is>
-      </c>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
       <c r="H115" t="n">
         <v>3</v>
       </c>
@@ -4304,13 +4320,13 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMDEC</t>
+          <t>Baden Wuerttemberg CPI YoYDEC</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
@@ -4328,13 +4344,13 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYDEC</t>
+          <t>Bavaria CPI MoMDEC</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
@@ -4352,13 +4368,13 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMDEC</t>
+          <t>Bavaria CPI YoYDEC</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
@@ -4371,18 +4387,18 @@
       <c r="A119" t="inlineStr"/>
       <c r="B119" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Bavaria CPI YoYDEC</t>
+          <t>LMI Logistics Managers IndexDEC</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
@@ -4395,22 +4411,26 @@
       <c r="A120" t="inlineStr"/>
       <c r="B120" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexDEC</t>
+          <t>Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>-4.9</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>-4.6</t>
+        </is>
+      </c>
       <c r="H120" t="n">
         <v>3</v>
       </c>
@@ -4419,24 +4439,28 @@
       <c r="A121" t="inlineStr"/>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Business ConfidenceDEC</t>
+          <t>Total Vehicle SalesDEC</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>-4.9</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr"/>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>16.5M</t>
+        </is>
+      </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>-4.6</t>
+          <t>16.3M</t>
         </is>
       </c>
       <c r="H121" t="n">
@@ -6448,15 +6472,11 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentDEC/28</t>
+          <t>Foreign Bond InvestmentJAN/04</t>
         </is>
       </c>
       <c r="D188" t="inlineStr"/>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>¥-919.2B</t>
-        </is>
-      </c>
+      <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="n">
@@ -6476,11 +6496,15 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/04</t>
+          <t>Foreign Bond InvestmentDEC/28</t>
         </is>
       </c>
       <c r="D189" t="inlineStr"/>
-      <c r="E189" t="inlineStr"/>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>¥-919.2B</t>
+        </is>
+      </c>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="n">
@@ -6500,11 +6524,15 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/04</t>
+          <t>Stock Investment by ForeignersDEC/28</t>
         </is>
       </c>
       <c r="D190" t="inlineStr"/>
-      <c r="E190" t="inlineStr"/>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>¥-1022.6B</t>
+        </is>
+      </c>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="n">
@@ -6524,15 +6552,11 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersDEC/28</t>
+          <t>Stock Investment by ForeignersJAN/04</t>
         </is>
       </c>
       <c r="D191" t="inlineStr"/>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>¥-1022.6B</t>
-        </is>
-      </c>
+      <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="n">
@@ -15622,26 +15646,116 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" t="inlineStr"/>
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsNOV</t>
+          <t>Business Inventories MoMNOV</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
       <c r="E486" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F486" t="inlineStr"/>
       <c r="G486" t="inlineStr"/>
       <c r="H486" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>NAHB Housing Market IndexJAN</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr"/>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr"/>
+      <c r="G487" t="inlineStr"/>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Retail Inventories Ex Autos MoMNOV</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr"/>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr"/>
+      <c r="G488" t="inlineStr"/>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr"/>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Consumer Inflation ExpectationsNOV</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr"/>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr"/>
+      <c r="G489" t="inlineStr"/>
+      <c r="H489" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H489"/>
+  <dimension ref="A1:H490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6472,11 +6472,15 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/04</t>
+          <t>Foreign Bond InvestmentDEC/28</t>
         </is>
       </c>
       <c r="D188" t="inlineStr"/>
-      <c r="E188" t="inlineStr"/>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>¥-919.2B</t>
+        </is>
+      </c>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="n">
@@ -6496,15 +6500,11 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentDEC/28</t>
+          <t>Foreign Bond InvestmentJAN/04</t>
         </is>
       </c>
       <c r="D189" t="inlineStr"/>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>¥-919.2B</t>
-        </is>
-      </c>
+      <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="n">
@@ -13616,7 +13616,7 @@
       <c r="F419" t="inlineStr"/>
       <c r="G419" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H419" t="inlineStr">
@@ -15736,26 +15736,52 @@
       </c>
     </row>
     <row r="489">
-      <c r="A489" t="inlineStr"/>
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsNOV</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D489" t="inlineStr"/>
-      <c r="E489" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="E489" t="inlineStr"/>
       <c r="F489" t="inlineStr"/>
       <c r="G489" t="inlineStr"/>
       <c r="H489" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr"/>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Consumer Inflation ExpectationsNOV</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr"/>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr"/>
+      <c r="G490" t="inlineStr"/>
+      <c r="H490" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H490"/>
+  <dimension ref="A1:H494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2273,7 +2273,11 @@
           <t>3-Month Bill Auction</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.205%</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>4.230%</t>
@@ -2301,7 +2305,11 @@
           <t>6-Month Bill Auction</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.110%</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>4.135%</t>
@@ -6472,15 +6480,11 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentDEC/28</t>
+          <t>Foreign Bond InvestmentJAN/04</t>
         </is>
       </c>
       <c r="D188" t="inlineStr"/>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>¥-919.2B</t>
-        </is>
-      </c>
+      <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="n">
@@ -6500,11 +6504,15 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/04</t>
+          <t>Foreign Bond InvestmentDEC/28</t>
         </is>
       </c>
       <c r="D189" t="inlineStr"/>
-      <c r="E189" t="inlineStr"/>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>¥-919.2B</t>
+        </is>
+      </c>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="n">
@@ -9996,7 +10004,11 @@
         </is>
       </c>
       <c r="D301" t="inlineStr"/>
-      <c r="E301" t="inlineStr"/>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>4.205%</t>
+        </is>
+      </c>
       <c r="F301" t="inlineStr"/>
       <c r="G301" t="inlineStr"/>
       <c r="H301" t="inlineStr">
@@ -10022,7 +10034,11 @@
         </is>
       </c>
       <c r="D302" t="inlineStr"/>
-      <c r="E302" t="inlineStr"/>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>4.110%</t>
+        </is>
+      </c>
       <c r="F302" t="inlineStr"/>
       <c r="G302" t="inlineStr"/>
       <c r="H302" t="inlineStr">
@@ -15762,26 +15778,130 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" t="inlineStr"/>
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsNOV</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
-      <c r="E490" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="E490" t="inlineStr"/>
       <c r="F490" t="inlineStr"/>
       <c r="G490" t="inlineStr"/>
       <c r="H490" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>8-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr"/>
+      <c r="E491" t="inlineStr"/>
+      <c r="F491" t="inlineStr"/>
+      <c r="G491" t="inlineStr"/>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>15-Year Mortgage RateJAN/16</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr"/>
+      <c r="E492" t="inlineStr"/>
+      <c r="F492" t="inlineStr"/>
+      <c r="G492" t="inlineStr"/>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>30-Year Mortgage RateJAN/16</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr"/>
+      <c r="E493" t="inlineStr"/>
+      <c r="F493" t="inlineStr"/>
+      <c r="G493" t="inlineStr"/>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr"/>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>Consumer Inflation ExpectationsNOV</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr"/>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr"/>
+      <c r="G494" t="inlineStr"/>
+      <c r="H494" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
@@ -2337,7 +2337,11 @@
           <t>Balance of TradeDEC</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>$4.8B</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>$7.03B</t>
@@ -2373,7 +2377,11 @@
           <t>3-Year Note Auction</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.332%</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>4.117%</t>
@@ -6480,11 +6488,15 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/04</t>
+          <t>Foreign Bond InvestmentDEC/28</t>
         </is>
       </c>
       <c r="D188" t="inlineStr"/>
-      <c r="E188" t="inlineStr"/>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>¥-919.2B</t>
+        </is>
+      </c>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="n">
@@ -6504,15 +6516,11 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentDEC/28</t>
+          <t>Foreign Bond InvestmentJAN/04</t>
         </is>
       </c>
       <c r="D189" t="inlineStr"/>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>¥-919.2B</t>
-        </is>
-      </c>
+      <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="n">
@@ -6532,15 +6540,11 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersDEC/28</t>
+          <t>Stock Investment by ForeignersJAN/04</t>
         </is>
       </c>
       <c r="D190" t="inlineStr"/>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>¥-1022.6B</t>
-        </is>
-      </c>
+      <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="n">
@@ -6560,11 +6564,15 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/04</t>
+          <t>Stock Investment by ForeignersDEC/28</t>
         </is>
       </c>
       <c r="D191" t="inlineStr"/>
-      <c r="E191" t="inlineStr"/>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>¥-1022.6B</t>
+        </is>
+      </c>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="n">
